--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ptprj</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="H2">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="I2">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="J2">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N2">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O2">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P2">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q2">
-        <v>1.623109323643651</v>
+        <v>1.742486224713</v>
       </c>
       <c r="R2">
-        <v>1.623109323643651</v>
+        <v>6.969944898852</v>
       </c>
       <c r="S2">
-        <v>0.0001718038028242099</v>
+        <v>0.0001701643062141309</v>
       </c>
       <c r="T2">
-        <v>0.0001718038028242099</v>
+        <v>8.806658268379498E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="H3">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="I3">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="J3">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N3">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O3">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P3">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q3">
-        <v>4.69552199700214</v>
+        <v>4.988611638391999</v>
       </c>
       <c r="R3">
-        <v>4.69552199700214</v>
+        <v>29.931669830352</v>
       </c>
       <c r="S3">
-        <v>0.0004970142944646201</v>
+        <v>0.0004871680627251619</v>
       </c>
       <c r="T3">
-        <v>0.0004970142944646201</v>
+        <v>0.0003781923550662374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="H4">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="I4">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="J4">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N4">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O4">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P4">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q4">
-        <v>57.72379635121731</v>
+        <v>60.38110796477899</v>
       </c>
       <c r="R4">
-        <v>57.72379635121731</v>
+        <v>362.286647788674</v>
       </c>
       <c r="S4">
-        <v>0.006109981368554241</v>
+        <v>0.005896579955436645</v>
       </c>
       <c r="T4">
-        <v>0.006109981368554241</v>
+        <v>0.004577560868231714</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="H5">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="I5">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="J5">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N5">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O5">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P5">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q5">
-        <v>78.38633039595273</v>
+        <v>78.580527547801</v>
       </c>
       <c r="R5">
-        <v>78.38633039595273</v>
+        <v>471.483165286806</v>
       </c>
       <c r="S5">
-        <v>0.008297081074753463</v>
+        <v>0.007673863220533841</v>
       </c>
       <c r="T5">
-        <v>0.008297081074753463</v>
+        <v>0.005957279686183291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="H6">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="I6">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="J6">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N6">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O6">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P6">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q6">
-        <v>1.393058960457472</v>
+        <v>1.411303355692</v>
       </c>
       <c r="R6">
-        <v>1.393058960457472</v>
+        <v>8.467820134152001</v>
       </c>
       <c r="S6">
-        <v>0.0001474533005747671</v>
+        <v>0.0001378222983763094</v>
       </c>
       <c r="T6">
-        <v>0.0001474533005747671</v>
+        <v>0.0001069925218660808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="H7">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="I7">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="J7">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.0219818852011</v>
+        <v>5.3450205</v>
       </c>
       <c r="N7">
-        <v>5.0219818852011</v>
+        <v>10.690041</v>
       </c>
       <c r="O7">
-        <v>0.0336547200357106</v>
+        <v>0.03503338559055636</v>
       </c>
       <c r="P7">
-        <v>0.0336547200357106</v>
+        <v>0.02372300976234502</v>
       </c>
       <c r="Q7">
-        <v>5.008854585901844</v>
+        <v>5.3406536182515</v>
       </c>
       <c r="R7">
-        <v>5.008854585901844</v>
+        <v>21.362614473006</v>
       </c>
       <c r="S7">
-        <v>0.0005301801013129717</v>
+        <v>0.0005215470887463907</v>
       </c>
       <c r="T7">
-        <v>0.0005301801013129717</v>
+        <v>0.0002699207068536349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="H8">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="I8">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="J8">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N8">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O8">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P8">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q8">
-        <v>60.16697472364063</v>
+        <v>68.998340961368</v>
       </c>
       <c r="R8">
-        <v>60.16697472364063</v>
+        <v>413.990045768208</v>
       </c>
       <c r="S8">
-        <v>0.006368588308484767</v>
+        <v>0.006738104814315573</v>
       </c>
       <c r="T8">
-        <v>0.006368588308484767</v>
+        <v>0.005230843159451514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="H9">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="I9">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="J9">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N9">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O9">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P9">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q9">
-        <v>174.0581174616872</v>
+        <v>197.5372441215787</v>
       </c>
       <c r="R9">
-        <v>174.0581174616872</v>
+        <v>1777.835197094208</v>
       </c>
       <c r="S9">
-        <v>0.01842380304070398</v>
+        <v>0.01929070521228153</v>
       </c>
       <c r="T9">
-        <v>0.01842380304070398</v>
+        <v>0.0224632866766057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="H10">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="I10">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="J10">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N10">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O10">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P10">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q10">
-        <v>2139.761102609976</v>
+        <v>2390.949331989811</v>
       </c>
       <c r="R10">
-        <v>2139.761102609976</v>
+        <v>21518.5439879083</v>
       </c>
       <c r="S10">
-        <v>0.2264906554405499</v>
+        <v>0.2334906460096679</v>
       </c>
       <c r="T10">
-        <v>0.2264906554405499</v>
+        <v>0.2718909060038819</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="H11">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="I11">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="J11">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N11">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O11">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P11">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q11">
-        <v>2905.699752266148</v>
+        <v>3111.603383585069</v>
       </c>
       <c r="R11">
-        <v>2905.699752266148</v>
+        <v>28004.43045226562</v>
       </c>
       <c r="S11">
-        <v>0.3075641671406533</v>
+        <v>0.3038668676238777</v>
       </c>
       <c r="T11">
-        <v>0.3075641671406533</v>
+        <v>0.3538413180774566</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="H12">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="I12">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="J12">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N12">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O12">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P12">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q12">
-        <v>51.63924699430005</v>
+        <v>55.88428118104534</v>
       </c>
       <c r="R12">
-        <v>51.63924699430005</v>
+        <v>502.9585306294081</v>
       </c>
       <c r="S12">
-        <v>0.005465940512671949</v>
+        <v>0.005457437654644458</v>
       </c>
       <c r="T12">
-        <v>0.005465940512671949</v>
+        <v>0.006354976928367154</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="H13">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="I13">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="J13">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.0219818852011</v>
+        <v>5.3450205</v>
       </c>
       <c r="N13">
-        <v>5.0219818852011</v>
+        <v>10.690041</v>
       </c>
       <c r="O13">
-        <v>0.0336547200357106</v>
+        <v>0.03503338559055636</v>
       </c>
       <c r="P13">
-        <v>0.0336547200357106</v>
+        <v>0.02372300976234502</v>
       </c>
       <c r="Q13">
-        <v>185.673030691377</v>
+        <v>211.477275448404</v>
       </c>
       <c r="R13">
-        <v>185.673030691377</v>
+        <v>1268.863652690424</v>
       </c>
       <c r="S13">
-        <v>0.01965322501078689</v>
+        <v>0.02065203348316826</v>
       </c>
       <c r="T13">
-        <v>0.01965322501078689</v>
+        <v>0.0160323341727606</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="H14">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="I14">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="J14">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N14">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O14">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P14">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q14">
-        <v>2.319181259851906</v>
+        <v>0.1076179104173333</v>
       </c>
       <c r="R14">
-        <v>2.319181259851906</v>
+        <v>0.645707462504</v>
       </c>
       <c r="S14">
-        <v>0.0002454820227307601</v>
+        <v>1.050953907276728E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002454820227307601</v>
+        <v>8.158636899054694E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="H15">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="I15">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="J15">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N15">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O15">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P15">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q15">
-        <v>6.709200952788424</v>
+        <v>0.3081022695004444</v>
       </c>
       <c r="R15">
-        <v>6.709200952788424</v>
+        <v>2.772920425504</v>
       </c>
       <c r="S15">
-        <v>0.0007101593348088784</v>
+        <v>3.008804786458359E-05</v>
       </c>
       <c r="T15">
-        <v>0.0007101593348088784</v>
+        <v>3.503637826009984E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="H16">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="I16">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="J16">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N16">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O16">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P16">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q16">
-        <v>82.47869986029494</v>
+        <v>3.729205187216444</v>
       </c>
       <c r="R16">
-        <v>82.47869986029494</v>
+        <v>33.562846684948</v>
       </c>
       <c r="S16">
-        <v>0.008730252535414745</v>
+        <v>0.0003641794146850967</v>
       </c>
       <c r="T16">
-        <v>0.008730252535414745</v>
+        <v>0.0004240729669427291</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="H17">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="I17">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="J17">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N17">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O17">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P17">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q17">
-        <v>112.002380760623</v>
+        <v>4.853221824223555</v>
       </c>
       <c r="R17">
-        <v>112.002380760623</v>
+        <v>43.678996418012</v>
       </c>
       <c r="S17">
-        <v>0.01185529197555442</v>
+        <v>0.0004739464294808429</v>
       </c>
       <c r="T17">
-        <v>0.01185529197555442</v>
+        <v>0.0005518924475608998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="H18">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="I18">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="J18">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N18">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O18">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P18">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q18">
-        <v>1.990473585420084</v>
+        <v>0.08716368367822222</v>
       </c>
       <c r="R18">
-        <v>1.990473585420084</v>
+        <v>0.7844731531040001</v>
       </c>
       <c r="S18">
-        <v>0.0002106887850466127</v>
+        <v>8.51206026757291E-06</v>
       </c>
       <c r="T18">
-        <v>0.0002106887850466127</v>
+        <v>9.91196785679464E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="H19">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="I19">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="J19">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.0219818852011</v>
+        <v>5.3450205</v>
       </c>
       <c r="N19">
-        <v>5.0219818852011</v>
+        <v>10.690041</v>
       </c>
       <c r="O19">
-        <v>0.0336547200357106</v>
+        <v>0.03503338559055636</v>
       </c>
       <c r="P19">
-        <v>0.0336547200357106</v>
+        <v>0.02372300976234502</v>
       </c>
       <c r="Q19">
-        <v>7.156906512538272</v>
+        <v>0.329844778402</v>
       </c>
       <c r="R19">
-        <v>7.156906512538272</v>
+        <v>1.979068670412</v>
       </c>
       <c r="S19">
-        <v>0.0007575483286308694</v>
+        <v>3.22113352054618E-05</v>
       </c>
       <c r="T19">
-        <v>0.0007575483286308694</v>
+        <v>2.500590997906647E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="H20">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="I20">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="J20">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.6273631987605</v>
+        <v>1.743911</v>
       </c>
       <c r="N20">
-        <v>1.6273631987605</v>
+        <v>3.487822</v>
       </c>
       <c r="O20">
-        <v>0.01090574480407747</v>
+        <v>0.01143028478536476</v>
       </c>
       <c r="P20">
-        <v>0.01090574480407747</v>
+        <v>0.007740067166750973</v>
       </c>
       <c r="Q20">
-        <v>38.92230781169857</v>
+        <v>3.091389757139667</v>
       </c>
       <c r="R20">
-        <v>38.92230781169857</v>
+        <v>18.548338542838</v>
       </c>
       <c r="S20">
-        <v>0.004119870670037737</v>
+        <v>0.0003018928848908319</v>
       </c>
       <c r="T20">
-        <v>0.004119870670037737</v>
+        <v>0.0002343617939072821</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="H21">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="I21">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="J21">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.70782810842218</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N21">
-        <v>4.70782810842218</v>
+        <v>14.978072</v>
       </c>
       <c r="O21">
-        <v>0.03154942422872815</v>
+        <v>0.03272407603669718</v>
       </c>
       <c r="P21">
-        <v>0.03154942422872815</v>
+        <v>0.03323887609758527</v>
       </c>
       <c r="Q21">
-        <v>112.5990405215881</v>
+        <v>8.850424584454224</v>
       </c>
       <c r="R21">
-        <v>112.5990405215881</v>
+        <v>79.65382126008801</v>
       </c>
       <c r="S21">
-        <v>0.01191844755875068</v>
+        <v>0.0008642974261459048</v>
       </c>
       <c r="T21">
-        <v>0.01191844755875068</v>
+        <v>0.001006441218385695</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="H22">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="I22">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="J22">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>57.8750799507701</v>
+        <v>60.43047966666666</v>
       </c>
       <c r="N22">
-        <v>57.8750799507701</v>
+        <v>181.291439</v>
       </c>
       <c r="O22">
-        <v>0.3878487930287584</v>
+        <v>0.3960853462740898</v>
       </c>
       <c r="P22">
-        <v>0.3878487930287584</v>
+        <v>0.4023163781342445</v>
       </c>
       <c r="Q22">
-        <v>1384.221837009883</v>
+        <v>107.1236811170812</v>
       </c>
       <c r="R22">
-        <v>1384.221837009883</v>
+        <v>964.1131300537312</v>
       </c>
       <c r="S22">
-        <v>0.1465179036842395</v>
+        <v>0.01046127459595516</v>
       </c>
       <c r="T22">
-        <v>0.1465179036842395</v>
+        <v>0.0121817532156379</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="H23">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="I23">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="J23">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5917667492009</v>
+        <v>78.64478033333333</v>
       </c>
       <c r="N23">
-        <v>78.5917667492009</v>
+        <v>235.934341</v>
       </c>
       <c r="O23">
-        <v>0.526681291872145</v>
+        <v>0.5154691014005035</v>
       </c>
       <c r="P23">
-        <v>0.526681291872145</v>
+        <v>0.5235782233964714</v>
       </c>
       <c r="Q23">
-        <v>1879.711264951497</v>
+        <v>139.4117408370988</v>
       </c>
       <c r="R23">
-        <v>1879.711264951497</v>
+        <v>1254.705667533889</v>
       </c>
       <c r="S23">
-        <v>0.1989647516811838</v>
+        <v>0.01361439867999902</v>
       </c>
       <c r="T23">
-        <v>0.1989647516811838</v>
+        <v>0.01585344533095221</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="H24">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="I24">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="J24">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.3967099153019</v>
+        <v>1.412457333333333</v>
       </c>
       <c r="N24">
-        <v>1.3967099153019</v>
+        <v>4.237372000000001</v>
       </c>
       <c r="O24">
-        <v>0.009360026030580596</v>
+        <v>0.009257805912788485</v>
       </c>
       <c r="P24">
-        <v>0.009360026030580596</v>
+        <v>0.009403445442602836</v>
       </c>
       <c r="Q24">
-        <v>33.40567937657576</v>
+        <v>2.503829686643112</v>
       </c>
       <c r="R24">
-        <v>33.40567937657576</v>
+        <v>22.53446717978801</v>
       </c>
       <c r="S24">
-        <v>0.003535943432287268</v>
+        <v>0.0002445140945525383</v>
       </c>
       <c r="T24">
-        <v>0.003535943432287268</v>
+        <v>0.000284727289228776</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="H25">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="J25">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.3450205</v>
+      </c>
+      <c r="N25">
+        <v>10.690041</v>
+      </c>
+      <c r="O25">
+        <v>0.03503338559055636</v>
+      </c>
+      <c r="P25">
+        <v>0.02372300976234502</v>
+      </c>
+      <c r="Q25">
+        <v>9.474991341531503</v>
+      </c>
+      <c r="R25">
+        <v>56.84994804918902</v>
+      </c>
+      <c r="S25">
+        <v>0.0009252901429864467</v>
+      </c>
+      <c r="T25">
+        <v>0.0007183099325889898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>24.7183095</v>
+      </c>
+      <c r="H26">
+        <v>49.436619</v>
+      </c>
+      <c r="I26">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="J26">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.743911</v>
+      </c>
+      <c r="N26">
+        <v>3.487822</v>
+      </c>
+      <c r="O26">
+        <v>0.01143028478536476</v>
+      </c>
+      <c r="P26">
+        <v>0.007740067166750973</v>
+      </c>
+      <c r="Q26">
+        <v>43.1065318384545</v>
+      </c>
+      <c r="R26">
+        <v>172.426127353818</v>
+      </c>
+      <c r="S26">
+        <v>0.004209613240871452</v>
+      </c>
+      <c r="T26">
+        <v>0.002178636993809328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>24.7183095</v>
+      </c>
+      <c r="H27">
+        <v>49.436619</v>
+      </c>
+      <c r="I27">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="J27">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.992690666666666</v>
+      </c>
+      <c r="N27">
+        <v>14.978072</v>
+      </c>
+      <c r="O27">
+        <v>0.03272407603669718</v>
+      </c>
+      <c r="P27">
+        <v>0.03323887609758527</v>
+      </c>
+      <c r="Q27">
+        <v>123.410873136428</v>
+      </c>
+      <c r="R27">
+        <v>740.465238818568</v>
+      </c>
+      <c r="S27">
+        <v>0.01205181728768</v>
+      </c>
+      <c r="T27">
+        <v>0.009355919469267542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>24.7183095</v>
+      </c>
+      <c r="H28">
+        <v>49.436619</v>
+      </c>
+      <c r="I28">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="J28">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.43047966666666</v>
+      </c>
+      <c r="N28">
+        <v>181.291439</v>
+      </c>
+      <c r="O28">
+        <v>0.3960853462740898</v>
+      </c>
+      <c r="P28">
+        <v>0.4023163781342445</v>
+      </c>
+      <c r="Q28">
+        <v>1493.739299634123</v>
+      </c>
+      <c r="R28">
+        <v>8962.435797804741</v>
+      </c>
+      <c r="S28">
+        <v>0.1458726662983449</v>
+      </c>
+      <c r="T28">
+        <v>0.1132420850795502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>24.7183095</v>
+      </c>
+      <c r="H29">
+        <v>49.436619</v>
+      </c>
+      <c r="I29">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="J29">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>78.64478033333333</v>
+      </c>
+      <c r="N29">
+        <v>235.934341</v>
+      </c>
+      <c r="O29">
+        <v>0.5154691014005035</v>
+      </c>
+      <c r="P29">
+        <v>0.5235782233964714</v>
+      </c>
+      <c r="Q29">
+        <v>1943.966020838846</v>
+      </c>
+      <c r="R29">
+        <v>11663.79612503308</v>
+      </c>
+      <c r="S29">
+        <v>0.1898400254466121</v>
+      </c>
+      <c r="T29">
+        <v>0.1473742878543185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="H25">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="I25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="J25">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.0219818852011</v>
-      </c>
-      <c r="N25">
-        <v>5.0219818852011</v>
-      </c>
-      <c r="O25">
-        <v>0.0336547200357106</v>
-      </c>
-      <c r="P25">
-        <v>0.0336547200357106</v>
-      </c>
-      <c r="Q25">
-        <v>120.1127842324635</v>
-      </c>
-      <c r="R25">
-        <v>120.1127842324635</v>
-      </c>
-      <c r="S25">
-        <v>0.01271376659497987</v>
-      </c>
-      <c r="T25">
-        <v>0.01271376659497987</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>24.7183095</v>
+      </c>
+      <c r="H30">
+        <v>49.436619</v>
+      </c>
+      <c r="I30">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="J30">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.412457333333333</v>
+      </c>
+      <c r="N30">
+        <v>4.237372000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.009257805912788485</v>
+      </c>
+      <c r="P30">
+        <v>0.009403445442602836</v>
+      </c>
+      <c r="Q30">
+        <v>34.913557520878</v>
+      </c>
+      <c r="R30">
+        <v>209.481345125268</v>
+      </c>
+      <c r="S30">
+        <v>0.003409519804947605</v>
+      </c>
+      <c r="T30">
+        <v>0.002646836735284031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>24.7183095</v>
+      </c>
+      <c r="H31">
+        <v>49.436619</v>
+      </c>
+      <c r="I31">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="J31">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.3450205</v>
+      </c>
+      <c r="N31">
+        <v>10.690041</v>
+      </c>
+      <c r="O31">
+        <v>0.03503338559055636</v>
+      </c>
+      <c r="P31">
+        <v>0.02372300976234502</v>
+      </c>
+      <c r="Q31">
+        <v>132.1198710028447</v>
+      </c>
+      <c r="R31">
+        <v>528.479484011379</v>
+      </c>
+      <c r="S31">
+        <v>0.0129023035404498</v>
+      </c>
+      <c r="T31">
+        <v>0.006677439040162732</v>
       </c>
     </row>
   </sheetData>
